--- a/asin_list/asin_list.xlsx
+++ b/asin_list/asin_list.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">SLUG</t>
   </si>
   <si>
-    <t xml:space="preserve">B00CTIA5P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gaming-chairs</t>
+    <t xml:space="preserve">B07P6Y7954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stud</t>
   </si>
 </sst>
 </file>
@@ -136,10 +136,10 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
   </cols>
@@ -152,7 +152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
